--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value473.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value473.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8677750346059275</v>
+        <v>1.004910707473755</v>
       </c>
       <c r="B1">
-        <v>1.176231600588916</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>1.942184558800768</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>4.973218380983549</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.879276268327174</v>
+        <v>1.158783793449402</v>
       </c>
     </row>
   </sheetData>
